--- a/sprint 8/Sprint 8 scrums.xlsx
+++ b/sprint 8/Sprint 8 scrums.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="159">
   <si>
     <t>Product Name:</t>
   </si>
@@ -818,11 +818,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1162769536"/>
-        <c:axId val="-1162784528"/>
+        <c:axId val="-1069809344"/>
+        <c:axId val="-1069812736"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-1162784528"/>
+        <c:axId val="-1069812736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,12 +877,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1162769536"/>
+        <c:crossAx val="-1069809344"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1162769536"/>
+        <c:axId val="-1069809344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1162784528"/>
+        <c:crossAx val="-1069812736"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,11 +1050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1099235312"/>
-        <c:axId val="-1099279760"/>
+        <c:axId val="-1066292032"/>
+        <c:axId val="-1069690608"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-1099279760"/>
+        <c:axId val="-1069690608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,12 +1109,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1099235312"/>
+        <c:crossAx val="-1066292032"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1099235312"/>
+        <c:axId val="-1066292032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1099279760"/>
+        <c:crossAx val="-1069690608"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1203,7 +1203,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DBCA6C-C949-453D-A0E7-E7C230997FA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22DBCA6C-C949-453D-A0E7-E7C230997FA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1234,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51406EFF-FE75-470A-B633-3B1698C09D54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51406EFF-FE75-470A-B633-3B1698C09D54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1833,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B29" si="0">B21</f>
+        <f t="shared" ref="B22:B27" si="0">B21</f>
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2233,6 +2233,12 @@
       <c r="B41">
         <v>8</v>
       </c>
+      <c r="C41" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="13">
+        <v>8</v>
+      </c>
       <c r="E41" s="11">
         <v>1</v>
       </c>
@@ -2253,6 +2259,12 @@
       <c r="B42" s="13">
         <v>9</v>
       </c>
+      <c r="C42" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="13">
+        <v>8</v>
+      </c>
       <c r="E42" s="14">
         <v>1</v>
       </c>
@@ -2273,6 +2285,12 @@
       <c r="B43">
         <v>10</v>
       </c>
+      <c r="C43" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="13">
+        <v>8</v>
+      </c>
       <c r="E43" s="11">
         <v>1</v>
       </c>
@@ -2293,6 +2311,12 @@
       <c r="B44">
         <v>11</v>
       </c>
+      <c r="C44" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="13">
+        <v>8</v>
+      </c>
       <c r="E44" s="11">
         <v>1</v>
       </c>
@@ -2312,6 +2336,12 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>12</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="13">
+        <v>8</v>
       </c>
       <c r="E45" s="11">
         <v>1</v>
@@ -2827,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
